--- a/Lists/rb01-exp1-log.xlsx
+++ b/Lists/rb01-exp1-log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Graduate Files/InvertedScenes/invertedScenes-main/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF28E4-B81C-E24C-BDA7-B12E00530C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858A546-F802-0E42-82E9-0D48204DD9DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480" xr2:uid="{647C8F6A-9BCF-D244-A0F9-D0D716BF26A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{647C8F6A-9BCF-D244-A0F9-D0D716BF26A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>SONA ID</t>
   </si>
@@ -112,13 +112,52 @@
   </si>
   <si>
     <t>super_H_g1_Consistent</t>
+  </si>
+  <si>
+    <t>basic_I_g1_Consistent</t>
+  </si>
+  <si>
+    <t>basic_J_g1_Consistent</t>
+  </si>
+  <si>
+    <t>basic_K_g1_Consistent</t>
+  </si>
+  <si>
+    <t>basic_L_g1_Consistent</t>
+  </si>
+  <si>
+    <t>super_I_g1_Consistent</t>
+  </si>
+  <si>
+    <t>super_J_g1_Consistent</t>
+  </si>
+  <si>
+    <t>super_K_g1_Consistent</t>
+  </si>
+  <si>
+    <t>super_L_g1_Consistent</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t># of participants</t>
+  </si>
+  <si>
+    <t># good</t>
+  </si>
+  <si>
+    <t># bad</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +167,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,111 +516,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C0C1BE-1534-0249-8185-B77A1F9F6365}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Lists/rb01-exp1-log.xlsx
+++ b/Lists/rb01-exp1-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Graduate Files/InvertedScenes/invertedScenes-main/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858A546-F802-0E42-82E9-0D48204DD9DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F87FDAC-0A22-6C40-8D25-B3422F3E6AC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{647C8F6A-9BCF-D244-A0F9-D0D716BF26A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>SONA ID</t>
   </si>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +618,18 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -634,6 +646,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -710,6 +725,18 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -738,8 +765,17 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
       <c r="E18">
         <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,6 +792,9 @@
       </c>
       <c r="B20" t="s">
         <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
